--- a/raw_data/20200818_saline/20200818_Sensor2_Test_77.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_77.xlsx
@@ -1,2609 +1,3025 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4CE632-7BF9-4A4A-A668-8DC1D9A0CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>68771.295068</v>
+        <v>68771.295068000007</v>
       </c>
       <c r="B2" s="1">
-        <v>19.103138</v>
+        <v>19.103138000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.430000</v>
+        <v>1240.43</v>
       </c>
       <c r="D2" s="1">
-        <v>-301.038000</v>
+        <v>-301.03800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>68781.694687</v>
+        <v>68781.694686999996</v>
       </c>
       <c r="G2" s="1">
         <v>19.106026</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I2" s="1">
-        <v>-258.488000</v>
+        <v>-258.488</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>68792.106208</v>
+        <v>68792.106207999997</v>
       </c>
       <c r="L2" s="1">
-        <v>19.108918</v>
+        <v>19.108917999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.674000</v>
+        <v>-200.67400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>68802.367975</v>
+        <v>68802.367975000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.111769</v>
+        <v>19.111768999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.691000</v>
+        <v>-183.691</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>68812.631687</v>
+        <v>68812.631687000001</v>
       </c>
       <c r="V2" s="1">
-        <v>19.114620</v>
+        <v>19.114619999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.362000</v>
+        <v>-171.36199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>68822.704443</v>
+        <v>68822.704442999995</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.117418</v>
+        <v>19.117418000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.956000</v>
+        <v>-169.95599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>68832.971594</v>
+        <v>68832.971594000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.120270</v>
+        <v>19.120270000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.953000</v>
+        <v>-179.953</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>68842.721981</v>
+        <v>68842.721980999995</v>
       </c>
       <c r="AK2" s="1">
         <v>19.122978</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.210000</v>
+        <v>1384.21</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.779000</v>
+        <v>-209.779</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>68853.657248</v>
+        <v>68853.657248000003</v>
       </c>
       <c r="AP2" s="1">
         <v>19.126016</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.242000</v>
+        <v>-253.24199999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>68864.662976</v>
+        <v>68864.662976000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.129073</v>
+        <v>19.129073000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.460000</v>
+        <v>-312.45999999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>68876.459330</v>
+        <v>68876.459329999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.132350</v>
+        <v>19.132349999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.848000</v>
+        <v>-363.84800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>68887.358914</v>
+        <v>68887.358913999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.135377</v>
+        <v>19.135376999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.387000</v>
+        <v>-608.38699999999994</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>68898.367651</v>
+        <v>68898.367650999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.138435</v>
+        <v>19.138435000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.290000</v>
+        <v>1695.29</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1045.430000</v>
+        <v>-1045.43</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>68909.097606</v>
+        <v>68909.097605999996</v>
       </c>
       <c r="BO2" s="1">
         <v>19.141416</v>
       </c>
       <c r="BP2" s="1">
-        <v>1992.380000</v>
+        <v>1992.38</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1799.280000</v>
+        <v>-1799.28</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>68919.429738</v>
+        <v>68919.429738000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.144286</v>
+        <v>19.144286000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.520000</v>
+        <v>2382.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2663.720000</v>
+        <v>-2663.72</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>68930.422075</v>
+        <v>68930.422074999995</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.147339</v>
+        <v>19.147338999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.680000</v>
+        <v>2864.68</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3606.360000</v>
+        <v>-3606.36</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>68941.380187</v>
+        <v>68941.380187000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.150383</v>
+        <v>19.150383000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4263.110000</v>
+        <v>4263.1099999999997</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5857.780000</v>
+        <v>-5857.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>68771.989468</v>
       </c>
       <c r="B3" s="1">
-        <v>19.103330</v>
+        <v>19.10333</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.490000</v>
+        <v>1245.49</v>
       </c>
       <c r="D3" s="1">
-        <v>-298.331000</v>
+        <v>-298.33100000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>68782.141618</v>
+        <v>68782.141617999994</v>
       </c>
       <c r="G3" s="1">
-        <v>19.106150</v>
+        <v>19.10615</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="I3" s="1">
-        <v>-258.676000</v>
+        <v>-258.67599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>68792.507504</v>
+        <v>68792.507503999994</v>
       </c>
       <c r="L3" s="1">
-        <v>19.109030</v>
+        <v>19.109030000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.641000</v>
+        <v>-200.64099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>68802.716626</v>
+        <v>68802.716625999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.111866</v>
+        <v>19.111865999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.754000</v>
+        <v>-183.75399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>68812.981674</v>
+        <v>68812.981673999995</v>
       </c>
       <c r="V3" s="1">
-        <v>19.114717</v>
+        <v>19.114716999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.440000</v>
+        <v>1330.44</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.469000</v>
+        <v>-171.46899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>68823.084872</v>
+        <v>68823.084872000007</v>
       </c>
       <c r="AA3" s="1">
         <v>19.117524</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.950000</v>
+        <v>1348.95</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.897000</v>
+        <v>-169.89699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>68833.347561</v>
+        <v>68833.347561000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.120374</v>
+        <v>19.120374000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.610000</v>
+        <v>1362.61</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.970000</v>
+        <v>-179.97</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>68843.143548</v>
+        <v>68843.143547999993</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.123095</v>
+        <v>19.123094999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.825000</v>
+        <v>-209.82499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>68854.100670</v>
+        <v>68854.10067</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.126139</v>
+        <v>19.126138999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.262000</v>
+        <v>-253.262</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>68865.095521</v>
+        <v>68865.095520999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.129193</v>
+        <v>19.129193000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.040000</v>
+        <v>1432.04</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.474000</v>
+        <v>-312.47399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>68876.809506</v>
+        <v>68876.809506000005</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.132447</v>
+        <v>19.132446999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.897000</v>
+        <v>-363.89699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>68887.720037</v>
+        <v>68887.720037000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.135478</v>
+        <v>19.135477999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.387000</v>
+        <v>-608.38699999999994</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>68898.773349</v>
+        <v>68898.773348999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>19.138548</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1045.350000</v>
+        <v>-1045.3499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>68909.509285</v>
+        <v>68909.509284999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.141530</v>
+        <v>19.141529999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1992.080000</v>
+        <v>1992.08</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1799.540000</v>
+        <v>-1799.54</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>68919.912876</v>
+        <v>68919.912876000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.144420</v>
+        <v>19.14442</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.530000</v>
+        <v>2382.5300000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2664.020000</v>
+        <v>-2664.02</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>68930.891290</v>
+        <v>68930.89129</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.147470</v>
+        <v>19.147469999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2864.160000</v>
+        <v>2864.16</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3606.460000</v>
+        <v>-3606.46</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>68941.930250</v>
+        <v>68941.930250000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.150536</v>
+        <v>19.150535999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4279.570000</v>
+        <v>4279.57</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5861.330000</v>
+        <v>-5861.33</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>68772.361995</v>
+        <v>68772.361994999999</v>
       </c>
       <c r="B4" s="1">
         <v>19.103434</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.680000</v>
+        <v>1245.68</v>
       </c>
       <c r="D4" s="1">
-        <v>-297.874000</v>
+        <v>-297.87400000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>68782.381150</v>
+        <v>68782.381150000001</v>
       </c>
       <c r="G4" s="1">
-        <v>19.106217</v>
+        <v>19.106217000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.170000</v>
+        <v>1269.17</v>
       </c>
       <c r="I4" s="1">
-        <v>-258.515000</v>
+        <v>-258.51499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>68792.852191</v>
+        <v>68792.852190999998</v>
       </c>
       <c r="L4" s="1">
         <v>19.109126</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.460000</v>
+        <v>1304.46</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.479000</v>
+        <v>-200.47900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>68803.066840</v>
+        <v>68803.06684</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.111963</v>
+        <v>19.111962999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.760000</v>
+        <v>1316.76</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.728000</v>
+        <v>-183.72800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>68813.323572</v>
+        <v>68813.323571999994</v>
       </c>
       <c r="V4" s="1">
-        <v>19.114812</v>
+        <v>19.114812000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.470000</v>
+        <v>1330.47</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.231000</v>
+        <v>-171.23099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>68823.512392</v>
+        <v>68823.512392000004</v>
       </c>
       <c r="AA4" s="1">
         <v>19.117642</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.920000</v>
+        <v>1348.92</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.994000</v>
+        <v>-169.994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>68833.772137</v>
+        <v>68833.772137000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.120492</v>
+        <v>19.120491999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.966000</v>
+        <v>-179.96600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>68843.484796</v>
+        <v>68843.484796000004</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.123190</v>
+        <v>19.123190000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.834000</v>
+        <v>-209.834</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>68854.462255</v>
+        <v>68854.462255000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.126240</v>
+        <v>19.126239999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>68865.460555</v>
+        <v>68865.460554999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.129295</v>
+        <v>19.129294999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.010000</v>
+        <v>1432.01</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.474000</v>
+        <v>-312.47399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>68877.179556</v>
+        <v>68877.179556000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.132550</v>
+        <v>19.132549999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.830000</v>
+        <v>-363.83</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>68888.443169</v>
+        <v>68888.443169000006</v>
       </c>
       <c r="BE4" s="1">
         <v>19.135679</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.323000</v>
+        <v>-608.32299999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>68899.523795</v>
+        <v>68899.523795000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.138757</v>
+        <v>19.138756999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.180000</v>
+        <v>1695.18</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1045.340000</v>
+        <v>-1045.3399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>68909.933860</v>
+        <v>68909.933860000005</v>
       </c>
       <c r="BO4" s="1">
         <v>19.141648</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.010000</v>
+        <v>1992.01</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1799.640000</v>
+        <v>-1799.64</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>68920.320056</v>
+        <v>68920.320055999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.144533</v>
+        <v>19.144532999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2382.620000</v>
+        <v>2382.62</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2663.640000</v>
+        <v>-2663.64</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>68931.346120</v>
+        <v>68931.346120000002</v>
       </c>
       <c r="BY4" s="1">
         <v>19.147596</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2864.140000</v>
+        <v>2864.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3606.670000</v>
+        <v>-3606.67</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>68942.777913</v>
+        <v>68942.777912999998</v>
       </c>
       <c r="CD4" s="1">
         <v>19.150772</v>
       </c>
       <c r="CE4" s="1">
-        <v>4264.870000</v>
+        <v>4264.87</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5860.940000</v>
+        <v>-5860.94</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>68772.700730</v>
+        <v>68772.700729999997</v>
       </c>
       <c r="B5" s="1">
-        <v>19.103528</v>
+        <v>19.103528000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.720000</v>
+        <v>1245.72</v>
       </c>
       <c r="D5" s="1">
-        <v>-297.812000</v>
+        <v>-297.81200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>68782.726366</v>
+        <v>68782.726366000003</v>
       </c>
       <c r="G5" s="1">
         <v>19.106313</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I5" s="1">
-        <v>-258.416000</v>
+        <v>-258.416</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>68793.195423</v>
+        <v>68793.195422999997</v>
       </c>
       <c r="L5" s="1">
-        <v>19.109221</v>
+        <v>19.109221000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.448000</v>
+        <v>-200.44800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>68803.483441</v>
+        <v>68803.483441000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.112079</v>
+        <v>19.112079000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.660000</v>
+        <v>1316.66</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.727000</v>
+        <v>-183.727</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>68813.752613</v>
+        <v>68813.752613000004</v>
       </c>
       <c r="V5" s="1">
-        <v>19.114931</v>
+        <v>19.114930999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.385000</v>
+        <v>-171.38499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>68823.809526</v>
+        <v>68823.809525999997</v>
       </c>
       <c r="AA5" s="1">
         <v>19.117725</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.030000</v>
+        <v>1349.03</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.964000</v>
+        <v>-169.964</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>68834.055389</v>
+        <v>68834.055389000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.120571</v>
+        <v>19.120571000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.790000</v>
+        <v>1362.79</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.925000</v>
+        <v>-179.92500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>68843.832989</v>
+        <v>68843.832989000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.123287</v>
+        <v>19.123287000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.800000</v>
+        <v>-209.8</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>68854.822387</v>
+        <v>68854.822386999993</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.126340</v>
+        <v>19.126339999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.240000</v>
+        <v>-253.24</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>68865.824639</v>
+        <v>68865.824638999999</v>
       </c>
       <c r="AU5" s="1">
         <v>19.129396</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.470000</v>
+        <v>-312.47000000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>68877.896736</v>
+        <v>68877.896735999995</v>
       </c>
       <c r="AZ5" s="1">
         <v>19.132749</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.878000</v>
+        <v>-363.87799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>68888.833058</v>
+        <v>68888.833058000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.135787</v>
+        <v>19.135787000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.385000</v>
+        <v>-608.38499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>68899.924562</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.138868</v>
+        <v>19.138867999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.440000</v>
+        <v>-1045.44</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>68910.333604</v>
+        <v>68910.333603999999</v>
       </c>
       <c r="BO5" s="1">
         <v>19.141759</v>
       </c>
       <c r="BP5" s="1">
-        <v>1991.970000</v>
+        <v>1991.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1799.570000</v>
+        <v>-1799.57</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>68920.750582</v>
+        <v>68920.750581999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.144653</v>
+        <v>19.144653000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>2382.500000</v>
+        <v>2382.5</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2663.930000</v>
+        <v>-2663.93</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>68932.102053</v>
+        <v>68932.102052999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.147806</v>
+        <v>19.147805999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2863.940000</v>
+        <v>2863.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3607.080000</v>
+        <v>-3607.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>68943.008058</v>
+        <v>68943.008058000007</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.150836</v>
+        <v>19.150836000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>4263.050000</v>
+        <v>4263.05</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5860.800000</v>
+        <v>-5860.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>68773.042971</v>
+        <v>68773.042971000003</v>
       </c>
       <c r="B6" s="1">
-        <v>19.103623</v>
+        <v>19.103622999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1245.720000</v>
+        <v>1245.72</v>
       </c>
       <c r="D6" s="1">
-        <v>-297.867000</v>
+        <v>-297.86700000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68783.159868</v>
+        <v>68783.159868000002</v>
       </c>
       <c r="G6" s="1">
-        <v>19.106433</v>
+        <v>19.106432999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I6" s="1">
-        <v>-258.576000</v>
+        <v>-258.57600000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>68793.615072</v>
+        <v>68793.615072000001</v>
       </c>
       <c r="L6" s="1">
-        <v>19.109338</v>
+        <v>19.109338000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.700000</v>
+        <v>1304.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.562000</v>
+        <v>-200.56200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>68803.766174</v>
+        <v>68803.766174000004</v>
       </c>
       <c r="Q6" s="1">
         <v>19.112157</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.610000</v>
+        <v>-183.61</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>68814.012516</v>
+        <v>68814.012516000003</v>
       </c>
       <c r="V6" s="1">
-        <v>19.115003</v>
+        <v>19.115003000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.610000</v>
+        <v>1330.61</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.123000</v>
+        <v>-171.12299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>68824.160166</v>
+        <v>68824.160166000001</v>
       </c>
       <c r="AA6" s="1">
         <v>19.117822</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.900000</v>
+        <v>1348.9</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.991000</v>
+        <v>-169.99100000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>68834.379253</v>
+        <v>68834.379253000006</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.120661</v>
+        <v>19.120660999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.840000</v>
+        <v>1362.84</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.089000</v>
+        <v>-180.089</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>68844.179691</v>
+        <v>68844.179690999998</v>
       </c>
       <c r="AK6" s="1">
         <v>19.123383</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.821000</v>
+        <v>-209.821</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>68855.542542</v>
+        <v>68855.542541999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.126540</v>
+        <v>19.126539999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>68866.553758</v>
+        <v>68866.553757999995</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.129598</v>
+        <v>19.129598000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.010000</v>
+        <v>1432.01</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.452000</v>
+        <v>-312.452</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>68878.254883</v>
+        <v>68878.254883000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>19.132849</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.852000</v>
+        <v>-363.85199999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>68889.190677</v>
+        <v>68889.190677000006</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.135886</v>
+        <v>19.135885999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.399000</v>
+        <v>-608.399</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>68900.301522</v>
+        <v>68900.301521999994</v>
       </c>
       <c r="BJ6" s="1">
         <v>19.138973</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.250000</v>
+        <v>1695.25</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.380000</v>
+        <v>-1045.3800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>68911.058260</v>
+        <v>68911.058260000005</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.141961</v>
+        <v>19.141960999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1991.870000</v>
+        <v>1991.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1799.580000</v>
+        <v>-1799.58</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>68921.319990</v>
+        <v>68921.319990000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.144811</v>
+        <v>19.144811000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2382.610000</v>
+        <v>2382.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2664.090000</v>
+        <v>-2664.09</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>68932.226520</v>
+        <v>68932.226519999997</v>
       </c>
       <c r="BY6" s="1">
         <v>19.147841</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2864.730000</v>
+        <v>2864.73</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3606.740000</v>
+        <v>-3606.74</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>68943.528889</v>
+        <v>68943.528888999994</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.150980</v>
+        <v>19.150980000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4279.680000</v>
+        <v>4279.68</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5863.290000</v>
+        <v>-5863.29</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>68773.471513</v>
+        <v>68773.471512999997</v>
       </c>
       <c r="B7" s="1">
         <v>19.103742</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.660000</v>
+        <v>1245.6600000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-297.900000</v>
+        <v>-297.89999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>68783.427212</v>
+        <v>68783.427211999995</v>
       </c>
       <c r="G7" s="1">
-        <v>19.106508</v>
+        <v>19.106508000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.630000</v>
+        <v>1269.6300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-257.860000</v>
+        <v>-257.86</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>68793.891310</v>
+        <v>68793.891310000006</v>
       </c>
       <c r="L7" s="1">
-        <v>19.109414</v>
+        <v>19.109414000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.580000</v>
+        <v>1304.58</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.235000</v>
+        <v>-200.23500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>68804.113361</v>
+        <v>68804.113360999996</v>
       </c>
       <c r="Q7" s="1">
         <v>19.112254</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.622000</v>
+        <v>-183.62200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>68814.366693</v>
+        <v>68814.366693000004</v>
       </c>
       <c r="V7" s="1">
         <v>19.115102</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.760000</v>
+        <v>1330.76</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.203000</v>
+        <v>-171.203</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>68824.507863</v>
+        <v>68824.507863000006</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.117919</v>
+        <v>19.117919000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.023000</v>
+        <v>-170.023</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>68834.960096</v>
+        <v>68834.960095999995</v>
       </c>
       <c r="AF7" s="1">
         <v>19.120822</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.940000</v>
+        <v>-179.94</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>68844.877597</v>
+        <v>68844.877596999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.123577</v>
+        <v>19.123577000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.798000</v>
+        <v>-209.798</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>68855.934381</v>
+        <v>68855.934380999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.126648</v>
+        <v>19.126647999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.241000</v>
+        <v>-253.24100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>68866.942621</v>
+        <v>68866.942620999995</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.129706</v>
+        <v>19.129705999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.469000</v>
+        <v>-312.46899999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>68878.613491</v>
+        <v>68878.613490999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.132948</v>
+        <v>19.132947999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.857000</v>
+        <v>-363.85700000000003</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>68889.866191</v>
+        <v>68889.866190999994</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.136074</v>
+        <v>19.136074000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.366000</v>
+        <v>-608.36599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>68900.987489</v>
+        <v>68900.987489000006</v>
       </c>
       <c r="BJ7" s="1">
         <v>19.139163</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1045.350000</v>
+        <v>-1045.3499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>68911.167912</v>
+        <v>68911.167912000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.141991</v>
+        <v>19.141991000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1991.970000</v>
+        <v>1991.97</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1799.560000</v>
+        <v>-1799.56</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>68921.576919</v>
+        <v>68921.576918999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.144882</v>
+        <v>19.144881999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2382.650000</v>
+        <v>2382.65</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2663.980000</v>
+        <v>-2663.98</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>68932.653096</v>
+        <v>68932.653095999995</v>
       </c>
       <c r="BY7" s="1">
         <v>19.147959</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2864.400000</v>
+        <v>2864.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3606.140000</v>
+        <v>-3606.14</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>68944.050647</v>
+        <v>68944.050646999996</v>
       </c>
       <c r="CD7" s="1">
         <v>19.151125</v>
       </c>
       <c r="CE7" s="1">
-        <v>4267.950000</v>
+        <v>4267.95</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5846.810000</v>
+        <v>-5846.81</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>68773.742330</v>
+        <v>68773.742329999994</v>
       </c>
       <c r="B8" s="1">
-        <v>19.103817</v>
+        <v>19.103816999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1245.680000</v>
+        <v>1245.68</v>
       </c>
       <c r="D8" s="1">
-        <v>-298.016000</v>
+        <v>-298.01600000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>68783.770477</v>
+        <v>68783.770476999998</v>
       </c>
       <c r="G8" s="1">
         <v>19.106603</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.100000</v>
+        <v>1269.0999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-258.461000</v>
+        <v>-258.46100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>68794.235038</v>
+        <v>68794.235037999999</v>
       </c>
       <c r="L8" s="1">
-        <v>19.109510</v>
+        <v>19.10951</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.440000</v>
+        <v>1304.44</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.349000</v>
+        <v>-200.34899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>68804.461095</v>
+        <v>68804.461095000006</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.112350</v>
+        <v>19.112349999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.704000</v>
+        <v>-183.70400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>68814.708402</v>
+        <v>68814.708402000004</v>
       </c>
       <c r="V8" s="1">
-        <v>19.115197</v>
+        <v>19.115196999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.426000</v>
+        <v>-171.42599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>68825.205732</v>
+        <v>68825.205732000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.118113</v>
+        <v>19.118113000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.800000</v>
+        <v>1348.8</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.951000</v>
+        <v>-169.95099999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>68835.070205</v>
+        <v>68835.070204999996</v>
       </c>
       <c r="AF8" s="1">
         <v>19.120853</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.550000</v>
+        <v>1362.55</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.085000</v>
+        <v>-180.08500000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>68845.227738</v>
+        <v>68845.227738000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.123674</v>
+        <v>19.123674000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.782000</v>
+        <v>-209.78200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>68856.290509</v>
+        <v>68856.290508999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.126747</v>
+        <v>19.126747000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.184000</v>
+        <v>-253.184</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>68867.306157</v>
+        <v>68867.306156999999</v>
       </c>
       <c r="AU8" s="1">
         <v>19.129807</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.484000</v>
+        <v>-312.48399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>68879.279613</v>
+        <v>68879.279613000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.133133</v>
+        <v>19.133133000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.817000</v>
+        <v>-363.81700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>68890.302174</v>
+        <v>68890.302173999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.136195</v>
+        <v>19.136195000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.358000</v>
+        <v>-608.35799999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>68901.097601</v>
+        <v>68901.097601000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>19.139194</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.180000</v>
+        <v>1695.18</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1045.360000</v>
+        <v>-1045.3599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>68911.570627</v>
+        <v>68911.570626999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.142103</v>
+        <v>19.142102999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1991.990000</v>
+        <v>1991.99</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1799.550000</v>
+        <v>-1799.55</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>68922.007942</v>
+        <v>68922.007941999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.145002</v>
+        <v>19.145002000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2382.660000</v>
+        <v>2382.66</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2663.980000</v>
+        <v>-2663.98</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>68933.070986</v>
+        <v>68933.070986000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.148075</v>
+        <v>19.148074999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2863.570000</v>
+        <v>2863.57</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3606.300000</v>
+        <v>-3606.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>68944.586833</v>
+        <v>68944.586832999994</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.151274</v>
+        <v>19.151274000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4269.480000</v>
+        <v>4269.4799999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5868.150000</v>
+        <v>-5868.15</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>68774.081603</v>
+        <v>68774.081602999999</v>
       </c>
       <c r="B9" s="1">
-        <v>19.103912</v>
+        <v>19.103912000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-297.976000</v>
+        <v>-297.976</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>68784.114668</v>
+        <v>68784.114667999995</v>
       </c>
       <c r="G9" s="1">
-        <v>19.106699</v>
+        <v>19.106698999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.870000</v>
+        <v>1269.8699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-258.581000</v>
+        <v>-258.58100000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>68794.580749</v>
+        <v>68794.580749000001</v>
       </c>
       <c r="L9" s="1">
-        <v>19.109606</v>
+        <v>19.109605999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.714000</v>
+        <v>-200.714</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>68805.159458</v>
+        <v>68805.159457999995</v>
       </c>
       <c r="Q9" s="1">
         <v>19.112544</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.787000</v>
+        <v>-183.78700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>68815.398840</v>
+        <v>68815.398839999994</v>
       </c>
       <c r="V9" s="1">
         <v>19.115389</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.670000</v>
+        <v>1330.67</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.338000</v>
+        <v>-171.33799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>68825.552436</v>
+        <v>68825.552435999998</v>
       </c>
       <c r="AA9" s="1">
         <v>19.118209</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.950000</v>
+        <v>1348.95</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.053000</v>
+        <v>-170.053</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>68835.409431</v>
+        <v>68835.409430999993</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.120947</v>
+        <v>19.120947000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.590000</v>
+        <v>1362.59</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.006000</v>
+        <v>-180.006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>68845.577419</v>
+        <v>68845.577418999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.123772</v>
+        <v>19.123771999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.220000</v>
+        <v>1384.22</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.763000</v>
+        <v>-209.76300000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>68856.958124</v>
+        <v>68856.958123999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.126933</v>
+        <v>19.126933000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.238000</v>
+        <v>-253.238</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>68867.997622</v>
+        <v>68867.997621999995</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.129999</v>
+        <v>19.129999000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.502000</v>
+        <v>-312.50200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>68879.721549</v>
+        <v>68879.721548999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.133256</v>
+        <v>19.133255999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.900000</v>
+        <v>1451.9</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.841000</v>
+        <v>-363.84100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>68890.663262</v>
+        <v>68890.663262000002</v>
       </c>
       <c r="BE9" s="1">
         <v>19.136295</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.362000</v>
+        <v>-608.36199999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>68901.452767</v>
+        <v>68901.452766999995</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.139292</v>
+        <v>19.139292000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1045.290000</v>
+        <v>-1045.29</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>68911.968419</v>
+        <v>68911.968418999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.142213</v>
+        <v>19.142213000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1991.800000</v>
+        <v>1991.8</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1799.460000</v>
+        <v>-1799.46</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>68922.423589</v>
+        <v>68922.423588999998</v>
       </c>
       <c r="BT9" s="1">
         <v>19.145118</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.910000</v>
+        <v>2382.91</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2663.740000</v>
+        <v>-2663.74</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>68933.519591</v>
+        <v>68933.519591000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.148200</v>
+        <v>19.148199999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2863.890000</v>
+        <v>2863.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3606.840000</v>
+        <v>-3606.84</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>68945.126006</v>
+        <v>68945.126006000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.151424</v>
+        <v>19.151423999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4277.850000</v>
+        <v>4277.8500000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5845.630000</v>
+        <v>-5845.63</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>68774.424824</v>
+        <v>68774.424824000002</v>
       </c>
       <c r="B10" s="1">
-        <v>19.104007</v>
+        <v>19.104006999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="D10" s="1">
-        <v>-297.889000</v>
+        <v>-297.88900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>68784.804143</v>
+        <v>68784.804143000001</v>
       </c>
       <c r="G10" s="1">
-        <v>19.106890</v>
+        <v>19.10689</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="I10" s="1">
-        <v>-258.231000</v>
+        <v>-258.23099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>68795.270189</v>
+        <v>68795.270189000003</v>
       </c>
       <c r="L10" s="1">
         <v>19.109797</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.505000</v>
+        <v>-200.505</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>68805.507119</v>
+        <v>68805.507119000002</v>
       </c>
       <c r="Q10" s="1">
         <v>19.112641</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.670000</v>
+        <v>1316.67</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.779000</v>
+        <v>-183.779</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>68815.739622</v>
+        <v>68815.739621999994</v>
       </c>
       <c r="V10" s="1">
-        <v>19.115483</v>
+        <v>19.115483000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.282000</v>
+        <v>-171.28200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>68825.901652</v>
@@ -2612,163 +3028,163 @@
         <v>19.118306</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.888000</v>
+        <v>-169.88800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>68836.064646</v>
+        <v>68836.064645999999</v>
       </c>
       <c r="AF10" s="1">
         <v>19.121129</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.480000</v>
+        <v>1362.48</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.018000</v>
+        <v>-180.018</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>68846.242088</v>
+        <v>68846.242087999999</v>
       </c>
       <c r="AK10" s="1">
         <v>19.123956</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.776000</v>
+        <v>-209.77600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>68857.408525</v>
+        <v>68857.408525000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.127058</v>
+        <v>19.127058000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>68868.428641</v>
+        <v>68868.428641000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.130119</v>
+        <v>19.130119000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.486000</v>
+        <v>-312.48599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>68880.079660</v>
+        <v>68880.079660000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.133355</v>
+        <v>19.133355000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.849000</v>
+        <v>-363.84899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>68891.024847</v>
+        <v>68891.024846999993</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.136396</v>
+        <v>19.136396000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.328000</v>
+        <v>-608.32799999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>68901.829727</v>
+        <v>68901.829727000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.139397</v>
+        <v>19.139396999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1045.300000</v>
+        <v>-1045.3</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>68912.391505</v>
+        <v>68912.391505000007</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.142331</v>
+        <v>19.142330999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1991.840000</v>
+        <v>1991.84</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1799.680000</v>
+        <v>-1799.68</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>68922.851139</v>
+        <v>68922.851139000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.145236</v>
+        <v>19.145236000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.670000</v>
+        <v>2382.67</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2663.910000</v>
+        <v>-2663.91</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>68933.941221</v>
+        <v>68933.941221000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.148317</v>
+        <v>19.148316999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2864.190000</v>
+        <v>2864.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3606.140000</v>
+        <v>-3606.14</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>68945.665125</v>
@@ -2777,392 +3193,392 @@
         <v>19.151574</v>
       </c>
       <c r="CE10" s="1">
-        <v>4263.430000</v>
+        <v>4263.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5858.520000</v>
+        <v>-5858.52</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>68775.105336</v>
+        <v>68775.105335999993</v>
       </c>
       <c r="B11" s="1">
-        <v>19.104196</v>
+        <v>19.104196000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.490000</v>
+        <v>1245.49</v>
       </c>
       <c r="D11" s="1">
-        <v>-297.828000</v>
+        <v>-297.82799999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>68785.146345</v>
+        <v>68785.146345000001</v>
       </c>
       <c r="G11" s="1">
-        <v>19.106985</v>
+        <v>19.106985000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.960000</v>
+        <v>1269.96</v>
       </c>
       <c r="I11" s="1">
-        <v>-258.958000</v>
+        <v>-258.95800000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>68795.616704</v>
       </c>
       <c r="L11" s="1">
-        <v>19.109894</v>
+        <v>19.109894000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.370000</v>
+        <v>1304.3699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.411000</v>
+        <v>-200.411</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>68805.856799</v>
+        <v>68805.856799000001</v>
       </c>
       <c r="Q11" s="1">
         <v>19.112738</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.710000</v>
+        <v>1316.71</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.648000</v>
+        <v>-183.648</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>68816.085334</v>
+        <v>68816.085334000003</v>
       </c>
       <c r="V11" s="1">
         <v>19.115579</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.370000</v>
+        <v>1330.37</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.338000</v>
+        <v>-171.33799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>68826.552898</v>
+        <v>68826.552897999994</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.118487</v>
+        <v>19.118486999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.900000</v>
+        <v>1348.9</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.002000</v>
+        <v>-170.00200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>68836.438630</v>
+        <v>68836.438630000004</v>
       </c>
       <c r="AF11" s="1">
         <v>19.121233</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.918000</v>
+        <v>-179.91800000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>68846.621523</v>
+        <v>68846.621522999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.124062</v>
+        <v>19.124061999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>68857.769578</v>
+        <v>68857.769578000007</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.127158</v>
+        <v>19.127158000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.620000</v>
+        <v>1406.62</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.227000</v>
+        <v>-253.227</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>68868.793519</v>
+        <v>68868.793518999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.130220</v>
+        <v>19.130220000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.445000</v>
+        <v>-312.44499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>68880.438235</v>
+        <v>68880.438234999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.133455</v>
+        <v>19.133455000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.830000</v>
+        <v>1451.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.867000</v>
+        <v>-363.86700000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>68891.443964</v>
+        <v>68891.443964000006</v>
       </c>
       <c r="BE11" s="1">
         <v>19.136512</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.348000</v>
+        <v>-608.34799999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>68902.274606</v>
+        <v>68902.274606000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.139521</v>
+        <v>19.139520999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1045.350000</v>
+        <v>-1045.3499999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>68912.782353</v>
+        <v>68912.782353000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.142440</v>
+        <v>19.142440000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1991.810000</v>
+        <v>1991.81</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1799.530000</v>
+        <v>-1799.53</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>68923.279218</v>
+        <v>68923.279217999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.145355</v>
+        <v>19.145354999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.790000</v>
+        <v>2382.79</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2664.090000</v>
+        <v>-2664.09</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>68934.366261</v>
+        <v>68934.366261000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.148435</v>
+        <v>19.148434999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2863.410000</v>
+        <v>2863.41</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3606.120000</v>
+        <v>-3606.12</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>68946.207780</v>
+        <v>68946.207779999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.151724</v>
+        <v>19.151724000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4281.260000</v>
+        <v>4281.26</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5859.450000</v>
+        <v>-5859.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>68775.449063</v>
+        <v>68775.449062999993</v>
       </c>
       <c r="B12" s="1">
         <v>19.104291</v>
       </c>
       <c r="C12" s="1">
-        <v>1245.440000</v>
+        <v>1245.44</v>
       </c>
       <c r="D12" s="1">
-        <v>-297.943000</v>
+        <v>-297.94299999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>68785.497049</v>
+        <v>68785.497048999998</v>
       </c>
       <c r="G12" s="1">
-        <v>19.107083</v>
+        <v>19.107082999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.160000</v>
+        <v>1269.1600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-257.550000</v>
+        <v>-257.55</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>68795.960651</v>
+        <v>68795.960651000001</v>
       </c>
       <c r="L12" s="1">
-        <v>19.109989</v>
+        <v>19.109988999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.690000</v>
+        <v>1304.69</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.354000</v>
+        <v>-200.35400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>68806.514493</v>
+        <v>68806.514492999995</v>
       </c>
       <c r="Q12" s="1">
         <v>19.112921</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.662000</v>
+        <v>-183.66200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>68816.736047</v>
+        <v>68816.736046999999</v>
       </c>
       <c r="V12" s="1">
-        <v>19.115760</v>
+        <v>19.115760000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.720000</v>
+        <v>1330.72</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.373000</v>
+        <v>-171.37299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>68826.943714</v>
+        <v>68826.943713999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.118595</v>
+        <v>19.118594999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.000000</v>
+        <v>1349</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.094000</v>
+        <v>-170.09399999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>68836.782888</v>
+        <v>68836.782888000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.121329</v>
+        <v>19.121328999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.470000</v>
+        <v>1362.47</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.028000</v>
+        <v>-180.02799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>68846.969689</v>
+        <v>68846.969689000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.124158</v>
+        <v>19.124158000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.220000</v>
+        <v>1384.22</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.810000</v>
+        <v>-209.81</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>68858.126697</v>
@@ -3171,664 +3587,664 @@
         <v>19.127257</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.228000</v>
+        <v>-253.22800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>68869.199882</v>
+        <v>68869.199882000001</v>
       </c>
       <c r="AU12" s="1">
         <v>19.130333</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.485000</v>
+        <v>-312.48500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>68880.850939</v>
+        <v>68880.850938999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.133570</v>
+        <v>19.133569999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.854000</v>
+        <v>-363.85399999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>68891.747022</v>
+        <v>68891.747021999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.136596</v>
+        <v>19.136596000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.344000</v>
+        <v>-608.34400000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>68902.581641</v>
+        <v>68902.581640999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.139606</v>
+        <v>19.139606000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1045.260000</v>
+        <v>-1045.26</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>68913.205441</v>
+        <v>68913.205440999998</v>
       </c>
       <c r="BO12" s="1">
         <v>19.142557</v>
       </c>
       <c r="BP12" s="1">
-        <v>1991.690000</v>
+        <v>1991.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1799.390000</v>
+        <v>-1799.39</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>68923.691860</v>
+        <v>68923.691860000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.145470</v>
+        <v>19.14547</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.510000</v>
+        <v>2382.5100000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2664.200000</v>
+        <v>-2664.2</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>68934.786868</v>
+        <v>68934.786867999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.148552</v>
+        <v>19.148551999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2863.960000</v>
+        <v>2863.96</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3606.770000</v>
+        <v>-3606.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>68946.748420</v>
+        <v>68946.748420000004</v>
       </c>
       <c r="CD12" s="1">
         <v>19.151875</v>
       </c>
       <c r="CE12" s="1">
-        <v>4266.840000</v>
+        <v>4266.84</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5846.930000</v>
+        <v>-5846.93</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>68775.788327</v>
+        <v>68775.788327000002</v>
       </c>
       <c r="B13" s="1">
-        <v>19.104386</v>
+        <v>19.104386000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.470000</v>
+        <v>1245.47</v>
       </c>
       <c r="D13" s="1">
-        <v>-298.007000</v>
+        <v>-298.00700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>68786.153720</v>
+        <v>68786.153720000002</v>
       </c>
       <c r="G13" s="1">
-        <v>19.107265</v>
+        <v>19.107265000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="I13" s="1">
-        <v>-258.343000</v>
+        <v>-258.34300000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>68796.610877</v>
+        <v>68796.610876999999</v>
       </c>
       <c r="L13" s="1">
-        <v>19.110170</v>
+        <v>19.11017</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.640000</v>
+        <v>1304.6400000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.447000</v>
+        <v>-200.447</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>68806.899390</v>
+        <v>68806.899390000006</v>
       </c>
       <c r="Q13" s="1">
         <v>19.113028</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.643000</v>
+        <v>-183.643</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>68817.115487</v>
+        <v>68817.115487000003</v>
       </c>
       <c r="V13" s="1">
-        <v>19.115865</v>
+        <v>19.115864999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.640000</v>
+        <v>1330.64</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.293000</v>
+        <v>-171.29300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>68827.297367</v>
+        <v>68827.297367000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.118694</v>
+        <v>19.118694000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.950000</v>
+        <v>1348.95</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.117000</v>
+        <v>-170.11699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>68837.126582</v>
+        <v>68837.126581999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.121424</v>
+        <v>19.121424000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.882000</v>
+        <v>-179.88200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>68847.317383</v>
+        <v>68847.317383000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.124255</v>
+        <v>19.124255000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.160000</v>
+        <v>1384.16</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.812000</v>
+        <v>-209.81200000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>68858.553788</v>
+        <v>68858.553788000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.127376</v>
+        <v>19.127376000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.211000</v>
+        <v>-253.21100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>68869.883895</v>
+        <v>68869.883895000006</v>
       </c>
       <c r="AU13" s="1">
         <v>19.130523</v>
       </c>
       <c r="AV13" s="1">
-        <v>1431.990000</v>
+        <v>1431.99</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.461000</v>
+        <v>-312.46100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>68881.156971</v>
+        <v>68881.156971000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.133655</v>
+        <v>19.133655000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.820000</v>
+        <v>-363.82</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>68892.109597</v>
+        <v>68892.109597000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.136697</v>
+        <v>19.136697000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.356000</v>
+        <v>-608.35599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>68902.975960</v>
+        <v>68902.975959999996</v>
       </c>
       <c r="BJ13" s="1">
         <v>19.139716</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1045.370000</v>
+        <v>-1045.3699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>68913.600786</v>
+        <v>68913.600785999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.142667</v>
+        <v>19.142666999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1991.770000</v>
+        <v>1991.77</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1799.340000</v>
+        <v>-1799.34</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>68924.123874</v>
+        <v>68924.123873999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.145590</v>
+        <v>19.145589999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.610000</v>
+        <v>2382.61</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2663.840000</v>
+        <v>-2663.84</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>68935.226364</v>
+        <v>68935.226364000002</v>
       </c>
       <c r="BY13" s="1">
         <v>19.148674</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2864.520000</v>
+        <v>2864.52</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3606.150000</v>
+        <v>-3606.15</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>68947.287049</v>
+        <v>68947.287049000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.152024</v>
+        <v>19.152024000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4268.970000</v>
+        <v>4268.97</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5867.720000</v>
+        <v>-5867.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>68776.448533</v>
+        <v>68776.448533000002</v>
       </c>
       <c r="B14" s="1">
-        <v>19.104569</v>
+        <v>19.104569000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.550000</v>
+        <v>1245.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-297.907000</v>
+        <v>-297.90699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>68786.529687</v>
+        <v>68786.529687000002</v>
       </c>
       <c r="G14" s="1">
-        <v>19.107369</v>
+        <v>19.107368999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="I14" s="1">
-        <v>-258.744000</v>
+        <v>-258.74400000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>68796.998284</v>
+        <v>68796.998284000001</v>
       </c>
       <c r="L14" s="1">
         <v>19.110277</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.390000</v>
+        <v>1304.3900000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.417000</v>
+        <v>-200.417</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>68807.250556</v>
+        <v>68807.250555999999</v>
       </c>
       <c r="Q14" s="1">
         <v>19.113125</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.616000</v>
+        <v>-183.61600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>68817.456735</v>
       </c>
       <c r="V14" s="1">
-        <v>19.115960</v>
+        <v>19.115960000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.285000</v>
+        <v>-171.285</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>68827.643075</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.118790</v>
+        <v>19.118790000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.950000</v>
+        <v>1348.95</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.054000</v>
+        <v>-170.054</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>68837.554133</v>
+        <v>68837.554132999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.121543</v>
+        <v>19.121542999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.999000</v>
+        <v>-179.999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>68847.749931</v>
+        <v>68847.749930999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.124375</v>
+        <v>19.124375000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.821000</v>
+        <v>-209.821</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>68858.850857</v>
+        <v>68858.850856999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.127459</v>
+        <v>19.127459000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.182000</v>
+        <v>-253.18199999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>68870.279176</v>
+        <v>68870.279175999996</v>
       </c>
       <c r="AU14" s="1">
         <v>19.130633</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.422000</v>
+        <v>-312.42200000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>68881.515548</v>
+        <v>68881.515547999996</v>
       </c>
       <c r="AZ14" s="1">
         <v>19.133754</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.830000</v>
+        <v>1451.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.845000</v>
+        <v>-363.84500000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>68892.471213</v>
+        <v>68892.471212999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.136798</v>
+        <v>19.136797999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.309000</v>
+        <v>-608.30899999999997</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>68903.350937</v>
+        <v>68903.350936999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.139820</v>
+        <v>19.13982</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1045.320000</v>
+        <v>-1045.32</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>68914.032272</v>
+        <v>68914.032271999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.142787</v>
+        <v>19.142786999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1991.830000</v>
+        <v>1991.83</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1799.340000</v>
+        <v>-1799.34</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>68924.550930</v>
+        <v>68924.550929999998</v>
       </c>
       <c r="BT14" s="1">
         <v>19.145709</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.440000</v>
+        <v>2382.44</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2663.870000</v>
+        <v>-2663.87</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>68935.649906</v>
+        <v>68935.649906000006</v>
       </c>
       <c r="BY14" s="1">
         <v>19.148792</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2863.950000</v>
+        <v>2863.95</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3606.290000</v>
+        <v>-3606.29</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>68947.828179</v>
+        <v>68947.828179000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.152174</v>
+        <v>19.152173999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.650000</v>
+        <v>4275.6499999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5844.090000</v>
+        <v>-5844.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>68776.815572</v>
+        <v>68776.815572000007</v>
       </c>
       <c r="B15" s="1">
         <v>19.104671</v>
       </c>
       <c r="C15" s="1">
-        <v>1245.500000</v>
+        <v>1245.5</v>
       </c>
       <c r="D15" s="1">
-        <v>-297.762000</v>
+        <v>-297.762</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>68786.871927</v>
@@ -3837,2855 +4253,2855 @@
         <v>19.107464</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I15" s="1">
-        <v>-257.865000</v>
+        <v>-257.86500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>68797.346937</v>
+        <v>68797.346936999995</v>
       </c>
       <c r="L15" s="1">
         <v>19.110374</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.160000</v>
+        <v>1304.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.642000</v>
+        <v>-200.642</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>68807.601725</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.113223</v>
+        <v>19.113223000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.700000</v>
+        <v>1316.7</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.668000</v>
+        <v>-183.66800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>68817.878862</v>
+        <v>68817.878861999998</v>
       </c>
       <c r="V15" s="1">
-        <v>19.116077</v>
+        <v>19.116077000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.310000</v>
+        <v>-171.31</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>68828.074594</v>
+        <v>68828.074594000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.118910</v>
+        <v>19.11891</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.460000</v>
+        <v>1348.46</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.426000</v>
+        <v>-170.42599999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>68837.818500</v>
+        <v>68837.818499999994</v>
       </c>
       <c r="AF15" s="1">
         <v>19.121616</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.410000</v>
+        <v>1362.41</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.977000</v>
+        <v>-179.977</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>68848.027668</v>
+        <v>68848.027667999995</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.124452</v>
+        <v>19.124452000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.774000</v>
+        <v>-209.774</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>68859.208969</v>
+        <v>68859.208968999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.127558</v>
+        <v>19.127558000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.238000</v>
+        <v>-253.238</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>68870.644233</v>
+        <v>68870.644232999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.130735</v>
+        <v>19.130735000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.505000</v>
+        <v>-312.505</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>68881.874652</v>
+        <v>68881.874651999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.133854</v>
+        <v>19.133853999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.857000</v>
+        <v>-363.85700000000003</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>68893.193386</v>
+        <v>68893.193385999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.136998</v>
+        <v>19.136997999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.319000</v>
+        <v>-608.31899999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>68904.112320</v>
+        <v>68904.11232</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.140031</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.210000</v>
+        <v>1695.21</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1045.290000</v>
+        <v>-1045.29</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>68914.417662</v>
+        <v>68914.417662000007</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.142894</v>
+        <v>19.142893999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.910000</v>
+        <v>1991.91</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1799.300000</v>
+        <v>-1799.3</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>68924.960657</v>
+        <v>68924.960657000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.145822</v>
+        <v>19.145821999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.860000</v>
+        <v>2382.86</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2663.830000</v>
+        <v>-2663.83</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>68936.076466</v>
+        <v>68936.076465999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.148910</v>
+        <v>19.148910000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2863.730000</v>
+        <v>2863.73</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3606.310000</v>
+        <v>-3606.31</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>68948.672369</v>
+        <v>68948.672369000007</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.152409</v>
+        <v>19.152408999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4279.720000</v>
+        <v>4279.72</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5863.090000</v>
+        <v>-5863.09</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>68777.158772</v>
+        <v>68777.158771999995</v>
       </c>
       <c r="B16" s="1">
-        <v>19.104766</v>
+        <v>19.104766000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.480000</v>
+        <v>1245.48</v>
       </c>
       <c r="D16" s="1">
-        <v>-298.117000</v>
+        <v>-298.11700000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>68787.218166</v>
+        <v>68787.218166000006</v>
       </c>
       <c r="G16" s="1">
         <v>19.107561</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.850000</v>
+        <v>1269.8499999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-258.294000</v>
+        <v>-258.29399999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68797.696121</v>
+        <v>68797.696121000001</v>
       </c>
       <c r="L16" s="1">
         <v>19.110471</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.560000</v>
+        <v>1304.56</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.548000</v>
+        <v>-200.548</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>68808.022333</v>
+        <v>68808.022333000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.113340</v>
+        <v>19.113340000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.598000</v>
+        <v>-183.59800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>68818.145678</v>
+        <v>68818.145678000001</v>
       </c>
       <c r="V16" s="1">
         <v>19.116152</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.780000</v>
+        <v>1330.78</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.378000</v>
+        <v>-171.37799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>68828.351888</v>
+        <v>68828.351888000005</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.118987</v>
+        <v>19.118987000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.040000</v>
+        <v>1349.04</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.950000</v>
+        <v>-169.95</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>68838.164707</v>
+        <v>68838.164707000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.121712</v>
+        <v>19.121711999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.680000</v>
+        <v>1362.68</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.029000</v>
+        <v>-180.029</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>68848.377335</v>
+        <v>68848.377334999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.124549</v>
+        <v>19.124548999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.789000</v>
+        <v>-209.78899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>68859.569559</v>
+        <v>68859.569558999996</v>
       </c>
       <c r="AP16" s="1">
         <v>19.127658</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>68871.600023</v>
+        <v>68871.600023000006</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.131000</v>
+        <v>19.131</v>
       </c>
       <c r="AV16" s="1">
-        <v>1431.990000</v>
+        <v>1431.99</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.476000</v>
+        <v>-312.476</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>68882.589880</v>
+        <v>68882.58988</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.134053</v>
+        <v>19.134053000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.832000</v>
+        <v>-363.83199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>68893.544059</v>
+        <v>68893.544059000007</v>
       </c>
       <c r="BE16" s="1">
         <v>19.137096</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.320000</v>
+        <v>-608.32000000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>68904.477340</v>
+        <v>68904.477339999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.140133</v>
+        <v>19.140132999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.310000</v>
+        <v>-1045.31</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>68914.838788</v>
+        <v>68914.838787999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.143011</v>
+        <v>19.143011000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1991.790000</v>
+        <v>1991.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1799.250000</v>
+        <v>-1799.25</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>68925.694704</v>
+        <v>68925.694703999994</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.146026</v>
+        <v>19.146025999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.620000</v>
+        <v>2382.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2663.870000</v>
+        <v>-2663.87</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>68936.834887</v>
+        <v>68936.834887000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.149121</v>
+        <v>19.149121000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.040000</v>
+        <v>2863.04</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3606.400000</v>
+        <v>-3606.4</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>68948.906016</v>
+        <v>68948.906015999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.152474</v>
+        <v>19.152474000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4278.710000</v>
+        <v>4278.71</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5862.150000</v>
+        <v>-5862.15</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>68777.501012</v>
+        <v>68777.501011999993</v>
       </c>
       <c r="B17" s="1">
         <v>19.104861</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="D17" s="1">
-        <v>-297.964000</v>
+        <v>-297.964</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>68787.640727</v>
+        <v>68787.640727000005</v>
       </c>
       <c r="G17" s="1">
         <v>19.107678</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.060000</v>
+        <v>1269.06</v>
       </c>
       <c r="I17" s="1">
-        <v>-258.210000</v>
+        <v>-258.20999999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>68798.125160</v>
+        <v>68798.125159999996</v>
       </c>
       <c r="L17" s="1">
-        <v>19.110590</v>
+        <v>19.110589999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.840000</v>
+        <v>1304.8399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.234000</v>
+        <v>-200.23400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>68808.300621</v>
+        <v>68808.300621000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.113417</v>
+        <v>19.113416999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.680000</v>
+        <v>1316.68</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.602000</v>
+        <v>-183.602</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>68818.488909</v>
+        <v>68818.488909000007</v>
       </c>
       <c r="V17" s="1">
-        <v>19.116247</v>
+        <v>19.116247000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.810000</v>
+        <v>1330.81</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>68828.702066</v>
+        <v>68828.702065999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.119084</v>
+        <v>19.119084000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.960000</v>
+        <v>1348.96</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.983000</v>
+        <v>-169.983</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>68838.504981</v>
+        <v>68838.504981000006</v>
       </c>
       <c r="AF17" s="1">
         <v>19.121807</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.004000</v>
+        <v>-180.00399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>68848.723579</v>
+        <v>68848.723578999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.124645</v>
+        <v>19.124645000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.806000</v>
+        <v>-209.80600000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>68860.290246</v>
+        <v>68860.290246000004</v>
       </c>
       <c r="AP17" s="1">
         <v>19.127858</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.223000</v>
+        <v>-253.22300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>68871.983431</v>
+        <v>68871.983431000001</v>
       </c>
       <c r="AU17" s="1">
         <v>19.131107</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.461000</v>
+        <v>-312.46100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>68882.950504</v>
+        <v>68882.950503999993</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.134153</v>
+        <v>19.134153000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.828000</v>
+        <v>-363.82799999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>68893.913546</v>
+        <v>68893.913545999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.137198</v>
+        <v>19.137198000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.303000</v>
+        <v>-608.303</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>68905.163342</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.140323</v>
+        <v>19.140322999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.140000</v>
+        <v>1695.14</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1045.240000</v>
+        <v>-1045.24</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>68915.549037</v>
+        <v>68915.549037000004</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.143208</v>
+        <v>19.143208000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1991.730000</v>
+        <v>1991.73</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1799.330000</v>
+        <v>-1799.33</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>68925.820192</v>
+        <v>68925.820191999999</v>
       </c>
       <c r="BT17" s="1">
         <v>19.146061</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.490000</v>
+        <v>2382.4899999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2663.970000</v>
+        <v>-2663.97</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>68936.956866</v>
+        <v>68936.956865999993</v>
       </c>
       <c r="BY17" s="1">
         <v>19.149155</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.260000</v>
+        <v>2863.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3606.060000</v>
+        <v>-3606.06</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>68949.426290</v>
+        <v>68949.426290000003</v>
       </c>
       <c r="CD17" s="1">
         <v>19.152618</v>
       </c>
       <c r="CE17" s="1">
-        <v>4279.050000</v>
+        <v>4279.05</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5845.540000</v>
+        <v>-5845.54</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>68777.922116</v>
+        <v>68777.922116000002</v>
       </c>
       <c r="B18" s="1">
-        <v>19.104978</v>
+        <v>19.104977999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.680000</v>
+        <v>1245.68</v>
       </c>
       <c r="D18" s="1">
-        <v>-297.589000</v>
+        <v>-297.589</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>68787.915013</v>
+        <v>68787.915013000005</v>
       </c>
       <c r="G18" s="1">
         <v>19.107754</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="I18" s="1">
-        <v>-258.440000</v>
+        <v>-258.44</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>68798.399796</v>
+        <v>68798.399795999998</v>
       </c>
       <c r="L18" s="1">
-        <v>19.110667</v>
+        <v>19.110666999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.218000</v>
+        <v>-200.21799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>68808.644314</v>
+        <v>68808.644314000005</v>
       </c>
       <c r="Q18" s="1">
         <v>19.113512</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.583000</v>
+        <v>-183.583</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>68818.832141</v>
+        <v>68818.832141000006</v>
       </c>
       <c r="V18" s="1">
         <v>19.116342</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.570000</v>
+        <v>1330.57</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.395000</v>
+        <v>-171.39500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>68829.049736</v>
+        <v>68829.049736000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.119180</v>
+        <v>19.11918</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.910000</v>
+        <v>1348.91</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.952000</v>
+        <v>-169.952</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>68839.192420</v>
+        <v>68839.192420000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.121998</v>
+        <v>19.121998000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.270000</v>
+        <v>1362.27</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.842000</v>
+        <v>-179.84200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>68849.420421</v>
+        <v>68849.420421000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.124839</v>
+        <v>19.124839000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.782000</v>
+        <v>-209.78200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>68860.648894</v>
+        <v>68860.648893999998</v>
       </c>
       <c r="AP18" s="1">
         <v>19.127958</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.197000</v>
+        <v>-253.197</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>68872.346999</v>
+        <v>68872.346999000001</v>
       </c>
       <c r="AU18" s="1">
         <v>19.131207</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.447000</v>
+        <v>-312.447</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>68883.308754</v>
+        <v>68883.308753999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.134252</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.863000</v>
+        <v>-363.863</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>68894.585659</v>
+        <v>68894.585659000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.137385</v>
+        <v>19.137384999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.297000</v>
+        <v>-608.29700000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>68905.272924</v>
+        <v>68905.272924000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.140354</v>
+        <v>19.140353999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1045.240000</v>
+        <v>-1045.24</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>68915.658694</v>
+        <v>68915.658693999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.143239</v>
+        <v>19.143239000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1991.670000</v>
+        <v>1991.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1799.280000</v>
+        <v>-1799.28</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>68926.230384</v>
+        <v>68926.230383999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.146175</v>
+        <v>19.146174999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.410000</v>
+        <v>2382.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2663.740000</v>
+        <v>-2663.74</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>68937.394337</v>
+        <v>68937.394337000005</v>
       </c>
       <c r="BY18" s="1">
         <v>19.149276</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2864.190000</v>
+        <v>2864.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3605.720000</v>
+        <v>-3605.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>68949.941663</v>
+        <v>68949.941663000005</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.152762</v>
+        <v>19.152761999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4281.550000</v>
+        <v>4281.55</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5852.760000</v>
+        <v>-5852.76</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>68778.200868</v>
       </c>
       <c r="B19" s="1">
-        <v>19.105056</v>
+        <v>19.105056000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.670000</v>
+        <v>1245.67</v>
       </c>
       <c r="D19" s="1">
-        <v>-297.808000</v>
+        <v>-297.80799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68788.258245</v>
+        <v>68788.258245000005</v>
       </c>
       <c r="G19" s="1">
-        <v>19.107850</v>
+        <v>19.107849999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I19" s="1">
-        <v>-259.844000</v>
+        <v>-259.84399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>68798.743671</v>
+        <v>68798.743671000004</v>
       </c>
       <c r="L19" s="1">
-        <v>19.110762</v>
+        <v>19.110762000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.470000</v>
+        <v>1304.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.376000</v>
+        <v>-200.376</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>68808.998715</v>
+        <v>68808.998714999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.113611</v>
+        <v>19.113610999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.727000</v>
+        <v>-183.727</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>68819.520092</v>
+        <v>68819.520092000006</v>
       </c>
       <c r="V19" s="1">
         <v>19.116533</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.316000</v>
+        <v>-171.316</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>68829.747104</v>
+        <v>68829.747103999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.119374</v>
+        <v>19.119374000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.880000</v>
+        <v>1348.88</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.992000</v>
+        <v>-169.99199999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>68839.536147</v>
+        <v>68839.536147000006</v>
       </c>
       <c r="AF19" s="1">
         <v>19.122093</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.968000</v>
+        <v>-179.96799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>68849.771589</v>
+        <v>68849.771588999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.124937</v>
+        <v>19.124936999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.210000</v>
+        <v>1384.21</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.796000</v>
+        <v>-209.79599999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>68861.011430</v>
+        <v>68861.011429999999</v>
       </c>
       <c r="AP19" s="1">
         <v>19.128059</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>68873.011141</v>
+        <v>68873.011140999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.131392</v>
+        <v>19.131392000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.445000</v>
+        <v>-312.44499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>68883.981160</v>
+        <v>68883.981159999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>19.134439</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.820000</v>
+        <v>1451.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.820000</v>
+        <v>-363.82</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>68895.022634</v>
+        <v>68895.022633999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.137506</v>
+        <v>19.137505999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.277000</v>
+        <v>-608.27700000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>68905.629050</v>
+        <v>68905.629050000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.140453</v>
+        <v>19.140453000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1045.310000</v>
+        <v>-1045.31</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>68916.080255</v>
+        <v>68916.080254999993</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.143356</v>
+        <v>19.143356000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1991.630000</v>
+        <v>1991.63</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1799.150000</v>
+        <v>-1799.15</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>68926.665376</v>
+        <v>68926.665376000004</v>
       </c>
       <c r="BT19" s="1">
         <v>19.146296</v>
       </c>
       <c r="BU19" s="1">
-        <v>2382.520000</v>
+        <v>2382.52</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2663.620000</v>
+        <v>-2663.62</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>68937.845696</v>
+        <v>68937.845696000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.149402</v>
+        <v>19.149401999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2863.840000</v>
+        <v>2863.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3605.380000</v>
+        <v>-3605.38</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>68950.493221</v>
+        <v>68950.493220999997</v>
       </c>
       <c r="CD19" s="1">
         <v>19.152915</v>
       </c>
       <c r="CE19" s="1">
-        <v>4278.190000</v>
+        <v>4278.1899999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5863.320000</v>
+        <v>-5863.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>68778.539634</v>
+        <v>68778.539634000001</v>
       </c>
       <c r="B20" s="1">
-        <v>19.105150</v>
+        <v>19.105149999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.670000</v>
+        <v>1245.67</v>
       </c>
       <c r="D20" s="1">
-        <v>-297.722000</v>
+        <v>-297.72199999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>68788.607429</v>
+        <v>68788.607428999996</v>
       </c>
       <c r="G20" s="1">
-        <v>19.107947</v>
+        <v>19.107946999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.990000</v>
+        <v>1269.99</v>
       </c>
       <c r="I20" s="1">
-        <v>-257.269000</v>
+        <v>-257.26900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>68799.136008</v>
+        <v>68799.136008000001</v>
       </c>
       <c r="L20" s="1">
-        <v>19.110871</v>
+        <v>19.110870999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.540000</v>
+        <v>1304.54</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.518000</v>
+        <v>-200.518</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>68809.695834</v>
+        <v>68809.695833999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.113804</v>
+        <v>19.113803999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.760000</v>
+        <v>1316.76</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.643000</v>
+        <v>-183.643</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>68819.864379</v>
+        <v>68819.864379000006</v>
       </c>
       <c r="V20" s="1">
         <v>19.116629</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.283000</v>
+        <v>-171.28299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>68830.097807</v>
+        <v>68830.097806999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.119472</v>
+        <v>19.119471999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.920000</v>
+        <v>1348.92</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.020000</v>
+        <v>-170.02</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>68839.879487</v>
+        <v>68839.879486999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.122189</v>
+        <v>19.122188999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.670000</v>
+        <v>1362.67</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.973000</v>
+        <v>-179.97300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>68850.121268</v>
+        <v>68850.121268000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.125034</v>
+        <v>19.125033999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.796000</v>
+        <v>-209.79599999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>68861.685493</v>
+        <v>68861.685492999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.128246</v>
+        <v>19.128246000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.630000</v>
+        <v>1406.63</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.220000</v>
+        <v>-253.22</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>68873.471430</v>
+        <v>68873.471430000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.131520</v>
+        <v>19.131519999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.431000</v>
+        <v>-312.43099999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>68884.415654</v>
+        <v>68884.415653999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.134560</v>
+        <v>19.13456</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.816000</v>
+        <v>-363.81599999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>68895.384716</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.137607</v>
+        <v>19.137606999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.309000</v>
+        <v>-608.30899999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>68906.005019</v>
+        <v>68906.005019000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.140557</v>
+        <v>19.140557000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1045.180000</v>
+        <v>-1045.18</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>68916.476557</v>
+        <v>68916.476557000002</v>
       </c>
       <c r="BO20" s="1">
         <v>19.143466</v>
       </c>
       <c r="BP20" s="1">
-        <v>1991.790000</v>
+        <v>1991.79</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1799.100000</v>
+        <v>-1799.1</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>68927.093920</v>
+        <v>68927.093919999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.146415</v>
+        <v>19.146415000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2382.220000</v>
+        <v>2382.2199999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2663.360000</v>
+        <v>-2663.36</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>68938.310447</v>
+        <v>68938.310446999996</v>
       </c>
       <c r="BY20" s="1">
         <v>19.149531</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2863.360000</v>
+        <v>2863.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3605.160000</v>
+        <v>-3605.16</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>68951.023407</v>
+        <v>68951.023407000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.153062</v>
+        <v>19.153061999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4279.980000</v>
+        <v>4279.9799999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5846.130000</v>
+        <v>-5846.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>68778.883886</v>
+        <v>68778.883885999996</v>
       </c>
       <c r="B21" s="1">
-        <v>19.105246</v>
+        <v>19.105246000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.680000</v>
+        <v>1245.68</v>
       </c>
       <c r="D21" s="1">
-        <v>-297.966000</v>
+        <v>-297.96600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>68789.302323</v>
+        <v>68789.302322999996</v>
       </c>
       <c r="G21" s="1">
-        <v>19.108140</v>
+        <v>19.108139999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.850000</v>
+        <v>1268.8499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-258.227000</v>
+        <v>-258.22699999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>68799.787254</v>
+        <v>68799.787253999995</v>
       </c>
       <c r="L21" s="1">
-        <v>19.111052</v>
+        <v>19.111052000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.420000</v>
+        <v>1304.42</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.378000</v>
+        <v>-200.37799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>68810.044552</v>
+        <v>68810.044552000007</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.113901</v>
+        <v>19.113900999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.670000</v>
+        <v>1316.67</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.657000</v>
+        <v>-183.65700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>68820.205564</v>
+        <v>68820.205564000004</v>
       </c>
       <c r="V21" s="1">
-        <v>19.116724</v>
+        <v>19.116724000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.346000</v>
+        <v>-171.346</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>68830.444019</v>
+        <v>68830.444019000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.119568</v>
+        <v>19.119568000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.880000</v>
+        <v>1348.88</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.076000</v>
+        <v>-170.07599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>68840.527648</v>
+        <v>68840.527648000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.122369</v>
+        <v>19.122368999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.440000</v>
+        <v>1362.44</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.093000</v>
+        <v>-180.09299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>68850.782932</v>
+        <v>68850.782932000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.125217</v>
+        <v>19.125216999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.791000</v>
+        <v>-209.791</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>68862.121012</v>
+        <v>68862.121012000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.128367</v>
+        <v>19.128367000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.620000</v>
+        <v>1406.62</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.212000</v>
+        <v>-253.21199999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>68873.835989</v>
+        <v>68873.835988999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.131621</v>
+        <v>19.131620999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.423000</v>
+        <v>-312.423</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>68884.773766</v>
+        <v>68884.773765999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.134659</v>
+        <v>19.134658999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.830000</v>
+        <v>1451.83</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.805000</v>
+        <v>-363.80500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>68895.746760</v>
+        <v>68895.746759999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.137707</v>
+        <v>19.137706999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.311000</v>
+        <v>-608.31100000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>68906.429097</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.140675</v>
+        <v>19.140675000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.060000</v>
+        <v>1695.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1045.220000</v>
+        <v>-1045.22</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>68916.900171</v>
+        <v>68916.900171000001</v>
       </c>
       <c r="BO21" s="1">
         <v>19.143583</v>
       </c>
       <c r="BP21" s="1">
-        <v>1991.770000</v>
+        <v>1991.77</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1798.990000</v>
+        <v>-1798.99</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>68927.496173</v>
+        <v>68927.496173000007</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.146527</v>
+        <v>19.146526999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.410000</v>
+        <v>2382.41</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2663.060000</v>
+        <v>-2663.06</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>68938.721679</v>
+        <v>68938.721678999995</v>
       </c>
       <c r="BY21" s="1">
         <v>19.149645</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2863.900000</v>
+        <v>2863.9</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3606.090000</v>
+        <v>-3606.09</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>68951.544703</v>
+        <v>68951.544703000007</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.153207</v>
+        <v>19.153206999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4259.650000</v>
+        <v>4259.6499999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5858.940000</v>
+        <v>-5858.94</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>68779.566353</v>
+        <v>68779.566353000002</v>
       </c>
       <c r="B22" s="1">
         <v>19.105435</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="D22" s="1">
-        <v>-298.088000</v>
+        <v>-298.08800000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>68789.652532</v>
+        <v>68789.652531999993</v>
       </c>
       <c r="G22" s="1">
-        <v>19.108237</v>
+        <v>19.108236999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.960000</v>
+        <v>1269.96</v>
       </c>
       <c r="I22" s="1">
-        <v>-259.452000</v>
+        <v>-259.452</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>68800.139413</v>
+        <v>68800.139412999997</v>
       </c>
       <c r="L22" s="1">
-        <v>19.111150</v>
+        <v>19.111149999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.510000</v>
+        <v>1304.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.574000</v>
+        <v>-200.57400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>68810.392750</v>
+        <v>68810.392749999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.113998</v>
+        <v>19.113997999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.608000</v>
+        <v>-183.608</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>68820.849370</v>
+        <v>68820.849369999996</v>
       </c>
       <c r="V22" s="1">
-        <v>19.116903</v>
+        <v>19.116903000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.380000</v>
+        <v>-171.38</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>68831.110110</v>
+        <v>68831.110109999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.119753</v>
+        <v>19.119752999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.980000</v>
+        <v>1348.98</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.061000</v>
+        <v>-170.06100000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>68840.911062</v>
+        <v>68840.911061999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.122475</v>
+        <v>19.122475000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.580000</v>
+        <v>1362.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.933000</v>
+        <v>-179.93299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>68851.163363</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.125323</v>
+        <v>19.125323000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.150000</v>
+        <v>1384.15</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.789000</v>
+        <v>-209.78899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>68862.484051</v>
+        <v>68862.484051000007</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.128468</v>
+        <v>19.128468000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.196000</v>
+        <v>-253.196</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>68874.203027</v>
+        <v>68874.203026999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.131723</v>
+        <v>19.131723000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.443000</v>
+        <v>-312.44299999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>68885.138366</v>
+        <v>68885.138365999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.134761</v>
+        <v>19.134761000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.845000</v>
+        <v>-363.84500000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>68896.169878</v>
+        <v>68896.169878000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.137825</v>
+        <v>19.137824999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.292000</v>
+        <v>-608.29200000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>68906.755960</v>
+        <v>68906.755959999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.140766</v>
+        <v>19.140765999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1045.230000</v>
+        <v>-1045.23</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>68917.297932</v>
+        <v>68917.297932000001</v>
       </c>
       <c r="BO22" s="1">
         <v>19.143694</v>
       </c>
       <c r="BP22" s="1">
-        <v>1991.600000</v>
+        <v>1991.6</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1799.100000</v>
+        <v>-1799.1</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>68927.935630</v>
+        <v>68927.935630000007</v>
       </c>
       <c r="BT22" s="1">
         <v>19.146649</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.920000</v>
+        <v>2381.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2663.020000</v>
+        <v>-2663.02</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>68939.163070</v>
+        <v>68939.163069999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.149768</v>
+        <v>19.149768000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2863.270000</v>
+        <v>2863.27</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3605.140000</v>
+        <v>-3605.14</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>68952.084349</v>
+        <v>68952.084348999997</v>
       </c>
       <c r="CD22" s="1">
         <v>19.153357</v>
       </c>
       <c r="CE22" s="1">
-        <v>4279.360000</v>
+        <v>4279.3599999999997</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5854.670000</v>
+        <v>-5854.67</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>68779.909088</v>
       </c>
       <c r="B23" s="1">
-        <v>19.105530</v>
+        <v>19.105530000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.520000</v>
+        <v>1245.52</v>
       </c>
       <c r="D23" s="1">
-        <v>-297.874000</v>
+        <v>-297.87400000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>68789.998735</v>
+        <v>68789.998735000001</v>
       </c>
       <c r="G23" s="1">
-        <v>19.108333</v>
+        <v>19.108332999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.790000</v>
+        <v>1269.79</v>
       </c>
       <c r="I23" s="1">
-        <v>-258.803000</v>
+        <v>-258.803</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>68800.784710</v>
+        <v>68800.784710000007</v>
       </c>
       <c r="L23" s="1">
-        <v>19.111329</v>
+        <v>19.111329000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.270000</v>
+        <v>1304.27</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.555000</v>
+        <v>-200.55500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>68811.045976</v>
+        <v>68811.045975999994</v>
       </c>
       <c r="Q23" s="1">
         <v>19.114179</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.558000</v>
+        <v>-183.55799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>68821.235755</v>
+        <v>68821.235755000002</v>
       </c>
       <c r="V23" s="1">
-        <v>19.117010</v>
+        <v>19.117010000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.380000</v>
+        <v>1330.38</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.486000</v>
+        <v>-171.48599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>68831.490541</v>
+        <v>68831.490541000006</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.119858</v>
+        <v>19.119858000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.918000</v>
+        <v>-169.91800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>68841.253295</v>
+        <v>68841.253295000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.122570</v>
+        <v>19.12257</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.640000</v>
+        <v>1362.64</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.697000</v>
+        <v>-179.697</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>68851.544961</v>
+        <v>68851.544961000007</v>
       </c>
       <c r="AK23" s="1">
         <v>19.125429</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.210000</v>
+        <v>1384.21</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.771000</v>
+        <v>-209.77099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>68862.846131</v>
+        <v>68862.846130999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.128568</v>
+        <v>19.128568000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.184000</v>
+        <v>-253.184</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>68874.619203</v>
+        <v>68874.619202999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.131839</v>
+        <v>19.131838999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.480000</v>
+        <v>-312.48</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>68885.565381</v>
+        <v>68885.565380999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.134879</v>
+        <v>19.134879000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.830000</v>
+        <v>1451.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.871000</v>
+        <v>-363.87099999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>68896.457526</v>
+        <v>68896.457525999998</v>
       </c>
       <c r="BE23" s="1">
         <v>19.137905</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.272000</v>
+        <v>-608.27200000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>68907.153752</v>
+        <v>68907.153751999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.140876</v>
+        <v>19.140875999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1045.200000</v>
+        <v>-1045.2</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>68917.719034</v>
+        <v>68917.719033999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.143811</v>
+        <v>19.143810999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1991.830000</v>
+        <v>1991.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1799.160000</v>
+        <v>-1799.16</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>68928.362684</v>
+        <v>68928.362684000007</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.146767</v>
+        <v>19.146767000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2381.910000</v>
+        <v>2381.91</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2663.190000</v>
+        <v>-2663.19</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>68939.597598</v>
+        <v>68939.597597999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.149888</v>
+        <v>19.149888000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2863.060000</v>
+        <v>2863.06</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3605.880000</v>
+        <v>-3605.88</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>68952.622540</v>
+        <v>68952.622539999997</v>
       </c>
       <c r="CD23" s="1">
         <v>19.153506</v>
       </c>
       <c r="CE23" s="1">
-        <v>4264.030000</v>
+        <v>4264.03</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5846.210000</v>
+        <v>-5846.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>68780.253816</v>
+        <v>68780.253815999997</v>
       </c>
       <c r="B24" s="1">
-        <v>19.105626</v>
+        <v>19.105626000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1245.830000</v>
+        <v>1245.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-297.973000</v>
+        <v>-297.97300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>68790.656443</v>
       </c>
       <c r="G24" s="1">
-        <v>19.108516</v>
+        <v>19.108516000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.010000</v>
+        <v>1270.01</v>
       </c>
       <c r="I24" s="1">
-        <v>-258.855000</v>
+        <v>-258.85500000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>68801.174069</v>
+        <v>68801.174069000001</v>
       </c>
       <c r="L24" s="1">
-        <v>19.111437</v>
+        <v>19.111436999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.489000</v>
+        <v>-200.489</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>68811.438775</v>
+        <v>68811.438775000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.114289</v>
+        <v>19.114288999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.590000</v>
+        <v>-183.59</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>68821.580985</v>
+        <v>68821.580984999993</v>
       </c>
       <c r="V24" s="1">
         <v>19.117106</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.223000</v>
+        <v>-171.22300000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>68831.836748</v>
+        <v>68831.836748000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.119955</v>
+        <v>19.119955000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.035000</v>
+        <v>-170.035</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>68841.599504</v>
+        <v>68841.599503999998</v>
       </c>
       <c r="AF24" s="1">
         <v>19.122667</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.640000</v>
+        <v>1362.64</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.900000</v>
+        <v>-179.9</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>68851.887564</v>
+        <v>68851.887564000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.125524</v>
+        <v>19.125523999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.776000</v>
+        <v>-209.77600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>68863.269218</v>
+        <v>68863.269218000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.128686</v>
+        <v>19.128685999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.237000</v>
+        <v>-253.23699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>68874.931683</v>
+        <v>68874.931683000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.131925</v>
+        <v>19.131924999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1431.990000</v>
+        <v>1431.99</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.423000</v>
+        <v>-312.423</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>68885.852080</v>
+        <v>68885.852079999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.134959</v>
+        <v>19.134958999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.814000</v>
+        <v>-363.81400000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>68896.829527</v>
+        <v>68896.829526999994</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.138008</v>
+        <v>19.138007999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.304000</v>
+        <v>-608.30399999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>68907.531703</v>
+        <v>68907.531703000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>19.140981</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1045.150000</v>
+        <v>-1045.1500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>68918.116362</v>
+        <v>68918.116362000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.143921</v>
+        <v>19.143920999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1991.800000</v>
+        <v>1991.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1799.050000</v>
+        <v>-1799.05</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>68928.785277</v>
+        <v>68928.785277000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.146885</v>
+        <v>19.146885000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2381.690000</v>
+        <v>2381.69</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2662.860000</v>
+        <v>-2662.86</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>68940.019166</v>
+        <v>68940.019165999998</v>
       </c>
       <c r="BY24" s="1">
         <v>19.150005</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2863.760000</v>
+        <v>2863.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3605.540000</v>
+        <v>-3605.54</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>68953.161165</v>
+        <v>68953.161164999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.153656</v>
+        <v>19.153656000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.080000</v>
+        <v>4270.08</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5862.410000</v>
+        <v>-5862.41</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>68780.899103</v>
+        <v>68780.899103000003</v>
       </c>
       <c r="B25" s="1">
         <v>19.105805</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.750000</v>
+        <v>1245.75</v>
       </c>
       <c r="D25" s="1">
-        <v>-298.024000</v>
+        <v>-298.024</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>68791.033708</v>
+        <v>68791.033708000003</v>
       </c>
       <c r="G25" s="1">
-        <v>19.108620</v>
+        <v>19.108619999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-258.043000</v>
+        <v>-258.04300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>68801.519299</v>
+        <v>68801.519299000007</v>
       </c>
       <c r="L25" s="1">
-        <v>19.111533</v>
+        <v>19.111533000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.470000</v>
+        <v>1304.47</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.184000</v>
+        <v>-200.184</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>68811.786470</v>
+        <v>68811.786470000006</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.114385</v>
+        <v>19.114384999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.612000</v>
+        <v>-183.61199999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>68821.929168</v>
+        <v>68821.929168000002</v>
       </c>
       <c r="V25" s="1">
         <v>19.117203</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.240000</v>
+        <v>-171.24</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>68832.187420</v>
+        <v>68832.187420000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.120052</v>
+        <v>19.120052000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.890000</v>
+        <v>1348.89</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.984000</v>
+        <v>-169.98400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>68842.029535</v>
+        <v>68842.029534999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.122786</v>
+        <v>19.122786000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.898000</v>
+        <v>-179.898</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>68852.578977</v>
+        <v>68852.578976999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.125716</v>
+        <v>19.125716000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.140000</v>
+        <v>1384.14</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.770000</v>
+        <v>-209.77</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>68863.563347</v>
+        <v>68863.563347000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.128768</v>
+        <v>19.128768000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.660000</v>
+        <v>1406.66</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.213000</v>
+        <v>-253.21299999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>68875.298731</v>
+        <v>68875.298731000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.132027</v>
+        <v>19.132027000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1431.990000</v>
+        <v>1431.99</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.404000</v>
+        <v>-312.404</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>68886.224596</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.135062</v>
+        <v>19.135062000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.809000</v>
+        <v>-363.80900000000003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>68897.190889</v>
+        <v>68897.190889000005</v>
       </c>
       <c r="BE25" s="1">
         <v>19.138109</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.249000</v>
+        <v>-608.24900000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>68908.279672</v>
+        <v>68908.279672000004</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.141189</v>
+        <v>19.141189000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.150000</v>
+        <v>1695.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1045.140000</v>
+        <v>-1045.1400000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>68918.545897</v>
+        <v>68918.545897000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.144041</v>
+        <v>19.144041000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1991.650000</v>
+        <v>1991.65</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1799.170000</v>
+        <v>-1799.17</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>68929.204891</v>
+        <v>68929.204891000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.147001</v>
+        <v>19.147000999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2381.560000</v>
+        <v>2381.56</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2662.860000</v>
+        <v>-2662.86</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>68940.440302</v>
+        <v>68940.440302000003</v>
       </c>
       <c r="BY25" s="1">
         <v>19.150122</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2863.350000</v>
+        <v>2863.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3605.710000</v>
+        <v>-3605.71</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>68953.706266</v>
+        <v>68953.706265999994</v>
       </c>
       <c r="CD25" s="1">
         <v>19.153807</v>
       </c>
       <c r="CE25" s="1">
-        <v>4277.710000</v>
+        <v>4277.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5844.310000</v>
+        <v>-5844.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>68781.272592</v>
+        <v>68781.272591999994</v>
       </c>
       <c r="B26" s="1">
         <v>19.105909</v>
       </c>
       <c r="C26" s="1">
-        <v>1245.660000</v>
+        <v>1245.6600000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-297.879000</v>
+        <v>-297.87900000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>68791.376129</v>
+        <v>68791.376128999997</v>
       </c>
       <c r="G26" s="1">
-        <v>19.108716</v>
+        <v>19.108716000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.610000</v>
+        <v>1269.6099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-258.408000</v>
+        <v>-258.40800000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>68801.867971</v>
       </c>
       <c r="L26" s="1">
-        <v>19.111630</v>
+        <v>19.111630000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.450000</v>
+        <v>1304.45</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.649000</v>
+        <v>-200.649</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>68812.137143</v>
@@ -6694,210 +7110,211 @@
         <v>19.114483</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.713000</v>
+        <v>-183.71299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>68822.353242</v>
+        <v>68822.353241999997</v>
       </c>
       <c r="V26" s="1">
-        <v>19.117320</v>
+        <v>19.117319999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.640000</v>
+        <v>1330.64</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>68832.616000</v>
+        <v>68832.615999999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.120171</v>
+        <v>19.120170999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.440000</v>
+        <v>1348.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.408000</v>
+        <v>-170.40799999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>68842.309805</v>
+        <v>68842.309804999997</v>
       </c>
       <c r="AF26" s="1">
         <v>19.122864</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.038000</v>
+        <v>-180.03800000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>68852.926144</v>
+        <v>68852.926143999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.125813</v>
+        <v>19.125813000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.783000</v>
+        <v>-209.78299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>68863.925922</v>
+        <v>68863.925921999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.128868</v>
+        <v>19.128868000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.229000</v>
+        <v>-253.22900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>68875.659491</v>
+        <v>68875.659490999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.132128</v>
+        <v>19.132128000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1431.980000</v>
+        <v>1431.98</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.410000</v>
+        <v>-312.41000000000003</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>68886.913538</v>
+        <v>68886.913537999993</v>
       </c>
       <c r="AZ26" s="1">
         <v>19.135254</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.774000</v>
+        <v>-363.774</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>68897.913286</v>
+        <v>68897.913285999995</v>
       </c>
       <c r="BE26" s="1">
         <v>19.138309</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.820000</v>
+        <v>1538.82</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.290000</v>
+        <v>-608.29</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>68908.655648</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.141293</v>
+        <v>19.141293000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.090000</v>
+        <v>1695.09</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1045.170000</v>
+        <v>-1045.17</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>68918.930297</v>
+        <v>68918.930296999999</v>
       </c>
       <c r="BO26" s="1">
         <v>19.144147</v>
       </c>
       <c r="BP26" s="1">
-        <v>1991.510000</v>
+        <v>1991.51</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1799.050000</v>
+        <v>-1799.05</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>68929.631948</v>
+        <v>68929.631947999995</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.147120</v>
+        <v>19.147120000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2381.320000</v>
+        <v>2381.3200000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2662.500000</v>
+        <v>-2662.5</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>68941.193724</v>
+        <v>68941.193723999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.150332</v>
+        <v>19.150331999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2863.310000</v>
+        <v>2863.31</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3604.980000</v>
+        <v>-3604.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>68954.552938</v>
+        <v>68954.552937999993</v>
       </c>
       <c r="CD26" s="1">
         <v>19.154042</v>
       </c>
       <c r="CE26" s="1">
-        <v>4276.450000</v>
+        <v>4276.45</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5864.090000</v>
+        <v>-5864.09</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>